--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Epor</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H2">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I2">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J2">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.47401</v>
+        <v>0.5474236666666666</v>
       </c>
       <c r="N2">
-        <v>1.42203</v>
+        <v>1.642271</v>
       </c>
       <c r="O2">
-        <v>0.5801458452622117</v>
+        <v>0.4118776754620977</v>
       </c>
       <c r="P2">
-        <v>0.5863702714070116</v>
+        <v>0.4555230966464942</v>
       </c>
       <c r="Q2">
-        <v>0.04628897254000001</v>
+        <v>0.06778199840666667</v>
       </c>
       <c r="R2">
-        <v>0.41660075286</v>
+        <v>0.61003798566</v>
       </c>
       <c r="S2">
-        <v>0.215183146907493</v>
+        <v>0.1531432519923154</v>
       </c>
       <c r="T2">
-        <v>0.232043299980604</v>
+        <v>0.1717595828041134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,46 +602,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H3">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I3">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J3">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1342416666666667</v>
+        <v>0.191328</v>
       </c>
       <c r="N3">
-        <v>0.402725</v>
+        <v>0.573984</v>
       </c>
       <c r="O3">
-        <v>0.1642997936282808</v>
+        <v>0.1439538271530318</v>
       </c>
       <c r="P3">
-        <v>0.1660625778305583</v>
+        <v>0.1592081752071012</v>
       </c>
       <c r="Q3">
-        <v>0.01310923571666667</v>
+        <v>0.02369023296</v>
       </c>
       <c r="R3">
-        <v>0.11798312145</v>
+        <v>0.21321209664</v>
       </c>
       <c r="S3">
-        <v>0.06094079086820962</v>
+        <v>0.05352452570346624</v>
       </c>
       <c r="T3">
-        <v>0.06571565858996559</v>
+        <v>0.06003104991577898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H4">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I4">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J4">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0260195</v>
+        <v>0.3820365</v>
       </c>
       <c r="N4">
-        <v>0.052039</v>
+        <v>0.764073</v>
       </c>
       <c r="O4">
-        <v>0.03184554085525646</v>
+        <v>0.2874415469097531</v>
       </c>
       <c r="P4">
-        <v>0.02145814262269395</v>
+        <v>0.2119339006923807</v>
       </c>
       <c r="Q4">
-        <v>0.002540908253</v>
+        <v>0.04730375943</v>
       </c>
       <c r="R4">
-        <v>0.015245449518</v>
+        <v>0.28382255658</v>
       </c>
       <c r="S4">
-        <v>0.011811898253116</v>
+        <v>0.1068757446056629</v>
       </c>
       <c r="T4">
-        <v>0.008491593909896875</v>
+        <v>0.07991181705813923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H5">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I5">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J5">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.182782</v>
+        <v>0.2083046666666667</v>
       </c>
       <c r="N5">
-        <v>0.548346</v>
+        <v>0.624914</v>
       </c>
       <c r="O5">
-        <v>0.2237088202542511</v>
+        <v>0.1567269504751173</v>
       </c>
       <c r="P5">
-        <v>0.2261090081397363</v>
+        <v>0.1733348274540239</v>
       </c>
       <c r="Q5">
-        <v>0.01784939342800001</v>
+        <v>0.02579228382666666</v>
       </c>
       <c r="R5">
-        <v>0.160644540852</v>
+        <v>0.23213055444</v>
       </c>
       <c r="S5">
-        <v>0.08297632108614879</v>
+        <v>0.05827379413965527</v>
       </c>
       <c r="T5">
-        <v>0.0894777292821982</v>
+        <v>0.0653576467759887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>0.186177</v>
       </c>
       <c r="I6">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J6">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.47401</v>
+        <v>0.5474236666666666</v>
       </c>
       <c r="N6">
-        <v>1.42203</v>
+        <v>1.642271</v>
       </c>
       <c r="O6">
-        <v>0.5801458452622117</v>
+        <v>0.4118776754620977</v>
       </c>
       <c r="P6">
-        <v>0.5863702714070116</v>
+        <v>0.4555230966464942</v>
       </c>
       <c r="Q6">
-        <v>0.02941658659</v>
+        <v>0.03397256532966667</v>
       </c>
       <c r="R6">
-        <v>0.26474927931</v>
+        <v>0.305753087967</v>
       </c>
       <c r="S6">
-        <v>0.1367486320471471</v>
+        <v>0.07675591241633907</v>
       </c>
       <c r="T6">
-        <v>0.1474632391248316</v>
+        <v>0.08608647996479143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,40 +856,40 @@
         <v>0.186177</v>
       </c>
       <c r="I7">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J7">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1342416666666667</v>
+        <v>0.191328</v>
       </c>
       <c r="N7">
-        <v>0.402725</v>
+        <v>0.573984</v>
       </c>
       <c r="O7">
-        <v>0.1642997936282808</v>
+        <v>0.1439538271530318</v>
       </c>
       <c r="P7">
-        <v>0.1660625778305583</v>
+        <v>0.1592081752071012</v>
       </c>
       <c r="Q7">
-        <v>0.008330903591666666</v>
+        <v>0.011873624352</v>
       </c>
       <c r="R7">
-        <v>0.07497813232499999</v>
+        <v>0.106862619168</v>
       </c>
       <c r="S7">
-        <v>0.03872779958312225</v>
+        <v>0.02682667210976749</v>
       </c>
       <c r="T7">
-        <v>0.04176222229949283</v>
+        <v>0.0300877639050503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>0.186177</v>
       </c>
       <c r="I8">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J8">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0260195</v>
+        <v>0.3820365</v>
       </c>
       <c r="N8">
-        <v>0.052039</v>
+        <v>0.764073</v>
       </c>
       <c r="O8">
-        <v>0.03184554085525646</v>
+        <v>0.2874415469097531</v>
       </c>
       <c r="P8">
-        <v>0.02145814262269395</v>
+        <v>0.2119339006923807</v>
       </c>
       <c r="Q8">
-        <v>0.0016147441505</v>
+        <v>0.0237088031535</v>
       </c>
       <c r="R8">
-        <v>0.009688464903</v>
+        <v>0.142252818921</v>
       </c>
       <c r="S8">
-        <v>0.007506447187930095</v>
+        <v>0.0535664822684771</v>
       </c>
       <c r="T8">
-        <v>0.005396397755896225</v>
+        <v>0.04005207119052707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,40 +980,40 @@
         <v>0.186177</v>
       </c>
       <c r="I9">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J9">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.182782</v>
+        <v>0.2083046666666667</v>
       </c>
       <c r="N9">
-        <v>0.548346</v>
+        <v>0.624914</v>
       </c>
       <c r="O9">
-        <v>0.2237088202542511</v>
+        <v>0.1567269504751173</v>
       </c>
       <c r="P9">
-        <v>0.2261090081397363</v>
+        <v>0.1733348274540239</v>
       </c>
       <c r="Q9">
-        <v>0.011343268138</v>
+        <v>0.01292717930866667</v>
       </c>
       <c r="R9">
-        <v>0.102089413242</v>
+        <v>0.116344613778</v>
       </c>
       <c r="S9">
-        <v>0.05273135263568626</v>
+        <v>0.02920702140617724</v>
       </c>
       <c r="T9">
-        <v>0.05686298975488906</v>
+        <v>0.03275747214723859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H10">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I10">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J10">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.47401</v>
+        <v>0.5474236666666666</v>
       </c>
       <c r="N10">
-        <v>1.42203</v>
+        <v>1.642271</v>
       </c>
       <c r="O10">
-        <v>0.5801458452622117</v>
+        <v>0.4118776754620977</v>
       </c>
       <c r="P10">
-        <v>0.5863702714070116</v>
+        <v>0.4555230966464942</v>
       </c>
       <c r="Q10">
-        <v>0.02347818931</v>
+        <v>0.06596655905344445</v>
       </c>
       <c r="R10">
-        <v>0.14086913586</v>
+        <v>0.593699031481</v>
       </c>
       <c r="S10">
-        <v>0.1091428558940242</v>
+        <v>0.1490415392532008</v>
       </c>
       <c r="T10">
-        <v>0.07846298626674651</v>
+        <v>0.1671592595140738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H11">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I11">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J11">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1342416666666667</v>
+        <v>0.191328</v>
       </c>
       <c r="N11">
-        <v>0.402725</v>
+        <v>0.573984</v>
       </c>
       <c r="O11">
-        <v>0.1642997936282808</v>
+        <v>0.1439538271530318</v>
       </c>
       <c r="P11">
-        <v>0.1660625778305583</v>
+        <v>0.1592081752071012</v>
       </c>
       <c r="Q11">
-        <v>0.006649123991666667</v>
+        <v>0.023055725536</v>
       </c>
       <c r="R11">
-        <v>0.03989474395</v>
+        <v>0.207501529824</v>
       </c>
       <c r="S11">
-        <v>0.03090972528000174</v>
+        <v>0.05209095141222685</v>
       </c>
       <c r="T11">
-        <v>0.02222105450959227</v>
+        <v>0.05842320811420658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H12">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I12">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J12">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0260195</v>
+        <v>0.3820365</v>
       </c>
       <c r="N12">
-        <v>0.052039</v>
+        <v>0.764073</v>
       </c>
       <c r="O12">
-        <v>0.03184554085525646</v>
+        <v>0.2874415469097531</v>
       </c>
       <c r="P12">
-        <v>0.02145814262269395</v>
+        <v>0.2119339006923807</v>
       </c>
       <c r="Q12">
-        <v>0.0012887718545</v>
+        <v>0.0460367990505</v>
       </c>
       <c r="R12">
-        <v>0.005155087418</v>
+        <v>0.276220794303</v>
       </c>
       <c r="S12">
-        <v>0.00599110259052459</v>
+        <v>0.1040132377864045</v>
       </c>
       <c r="T12">
-        <v>0.002871342617480097</v>
+        <v>0.07777149867147196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H13">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I13">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J13">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.182782</v>
+        <v>0.2083046666666667</v>
       </c>
       <c r="N13">
-        <v>0.548346</v>
+        <v>0.624914</v>
       </c>
       <c r="O13">
-        <v>0.2237088202542511</v>
+        <v>0.1567269504751173</v>
       </c>
       <c r="P13">
-        <v>0.2261090081397363</v>
+        <v>0.1733348274540239</v>
       </c>
       <c r="Q13">
-        <v>0.009053375242000001</v>
+        <v>0.02510147611711111</v>
       </c>
       <c r="R13">
-        <v>0.054320251452</v>
+        <v>0.225913285054</v>
       </c>
       <c r="S13">
-        <v>0.04208634730495459</v>
+        <v>0.05671301780331912</v>
       </c>
       <c r="T13">
-        <v>0.03025594724965393</v>
+        <v>0.06360714005178068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H14">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I14">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J14">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.47401</v>
+        <v>0.5474236666666666</v>
       </c>
       <c r="N14">
-        <v>1.42203</v>
+        <v>1.642271</v>
       </c>
       <c r="O14">
-        <v>0.5801458452622117</v>
+        <v>0.4118776754620977</v>
       </c>
       <c r="P14">
-        <v>0.5863702714070116</v>
+        <v>0.4555230966464942</v>
       </c>
       <c r="Q14">
-        <v>0.02561392036666667</v>
+        <v>0.007604262153666667</v>
       </c>
       <c r="R14">
-        <v>0.2305252833</v>
+        <v>0.045625572922</v>
       </c>
       <c r="S14">
-        <v>0.1190712104135475</v>
+        <v>0.01718068901167222</v>
       </c>
       <c r="T14">
-        <v>0.1284007460348295</v>
+        <v>0.01284613344495741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H15">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I15">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J15">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1342416666666667</v>
+        <v>0.191328</v>
       </c>
       <c r="N15">
-        <v>0.402725</v>
+        <v>0.573984</v>
       </c>
       <c r="O15">
-        <v>0.1642997936282808</v>
+        <v>0.1439538271530318</v>
       </c>
       <c r="P15">
-        <v>0.1660625778305583</v>
+        <v>0.1592081752071012</v>
       </c>
       <c r="Q15">
-        <v>0.007253972194444446</v>
+        <v>0.002657737248000001</v>
       </c>
       <c r="R15">
-        <v>0.06528574975</v>
+        <v>0.015946423488</v>
       </c>
       <c r="S15">
-        <v>0.03372147789694725</v>
+        <v>0.006004758411782019</v>
       </c>
       <c r="T15">
-        <v>0.03636364243150756</v>
+        <v>0.004489804094007893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H16">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I16">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J16">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0260195</v>
+        <v>0.3820365</v>
       </c>
       <c r="N16">
-        <v>0.052039</v>
+        <v>0.764073</v>
       </c>
       <c r="O16">
-        <v>0.03184554085525646</v>
+        <v>0.2874415469097531</v>
       </c>
       <c r="P16">
-        <v>0.02145814262269395</v>
+        <v>0.2119339006923807</v>
       </c>
       <c r="Q16">
-        <v>0.001406007048333334</v>
+        <v>0.0053068690215</v>
       </c>
       <c r="R16">
-        <v>0.008436042290000001</v>
+        <v>0.021227476086</v>
       </c>
       <c r="S16">
-        <v>0.006536092823685782</v>
+        <v>0.01199007404552789</v>
       </c>
       <c r="T16">
-        <v>0.004698808339420751</v>
+        <v>0.005976713782127886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.013891</v>
+      </c>
+      <c r="H17">
+        <v>0.027782</v>
+      </c>
+      <c r="I17">
+        <v>0.04171308627591115</v>
+      </c>
+      <c r="J17">
+        <v>0.02820083885872986</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2083046666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.624914</v>
+      </c>
+      <c r="O17">
+        <v>0.1567269504751173</v>
+      </c>
+      <c r="P17">
+        <v>0.1733348274540239</v>
+      </c>
+      <c r="Q17">
+        <v>0.002893560124666667</v>
+      </c>
+      <c r="R17">
+        <v>0.017361360748</v>
+      </c>
+      <c r="S17">
+        <v>0.006537564806929021</v>
+      </c>
+      <c r="T17">
+        <v>0.004888187537636672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.038218</v>
+      </c>
+      <c r="I18">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J18">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5474236666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.642271</v>
+      </c>
+      <c r="O18">
+        <v>0.4118776754620977</v>
+      </c>
+      <c r="P18">
+        <v>0.4555230966464942</v>
+      </c>
+      <c r="Q18">
+        <v>0.006973812564222222</v>
+      </c>
+      <c r="R18">
+        <v>0.06276431307800001</v>
+      </c>
+      <c r="S18">
+        <v>0.01575628278857027</v>
+      </c>
+      <c r="T18">
+        <v>0.01767164091855815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.038218</v>
+      </c>
+      <c r="I19">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J19">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.191328</v>
+      </c>
+      <c r="N19">
+        <v>0.573984</v>
+      </c>
+      <c r="O19">
+        <v>0.1439538271530318</v>
+      </c>
+      <c r="P19">
+        <v>0.1592081752071012</v>
+      </c>
+      <c r="Q19">
+        <v>0.002437391168</v>
+      </c>
+      <c r="R19">
+        <v>0.021936520512</v>
+      </c>
+      <c r="S19">
+        <v>0.005506919515789245</v>
+      </c>
+      <c r="T19">
+        <v>0.006176349178057506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.05403666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.16211</v>
-      </c>
-      <c r="I17">
-        <v>0.205243580361642</v>
-      </c>
-      <c r="J17">
-        <v>0.2189755386587529</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="G20">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.038218</v>
+      </c>
+      <c r="I20">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J20">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3820365</v>
+      </c>
+      <c r="N20">
+        <v>0.764073</v>
+      </c>
+      <c r="O20">
+        <v>0.2874415469097531</v>
+      </c>
+      <c r="P20">
+        <v>0.2119339006923807</v>
+      </c>
+      <c r="Q20">
+        <v>0.004866890319</v>
+      </c>
+      <c r="R20">
+        <v>0.029201341914</v>
+      </c>
+      <c r="S20">
+        <v>0.01099600820368068</v>
+      </c>
+      <c r="T20">
+        <v>0.008221799990114589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M17">
-        <v>0.182782</v>
-      </c>
-      <c r="N17">
-        <v>0.548346</v>
-      </c>
-      <c r="O17">
-        <v>0.2237088202542511</v>
-      </c>
-      <c r="P17">
-        <v>0.2261090081397363</v>
-      </c>
-      <c r="Q17">
-        <v>0.009876930006666668</v>
-      </c>
-      <c r="R17">
-        <v>0.08889237006</v>
-      </c>
-      <c r="S17">
-        <v>0.04591479922746151</v>
-      </c>
-      <c r="T17">
-        <v>0.04951234185299509</v>
+      <c r="G21">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.038218</v>
+      </c>
+      <c r="I21">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J21">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2083046666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.624914</v>
+      </c>
+      <c r="O21">
+        <v>0.1567269504751173</v>
+      </c>
+      <c r="P21">
+        <v>0.1733348274540239</v>
+      </c>
+      <c r="Q21">
+        <v>0.002653662583555556</v>
+      </c>
+      <c r="R21">
+        <v>0.023882963252</v>
+      </c>
+      <c r="S21">
+        <v>0.005995552319036626</v>
+      </c>
+      <c r="T21">
+        <v>0.00672438094137925</v>
       </c>
     </row>
   </sheetData>
